--- a/data/Sources/NGC7832.xlsx
+++ b/data/Sources/NGC7832.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="80">
   <si>
     <t>From new raw data</t>
   </si>
@@ -245,13 +245,22 @@
   </si>
   <si>
     <t>Results from query to  NASA/IPAC Extragalactic Database (NED),</t>
+  </si>
+  <si>
+    <t>http://ned.ipac.caltech.edu/cgi-bin/datasearch?objname=ngc+7832&amp;meas_type=bot&amp;ebars_spec=ebars&amp;label_spec=no&amp;x_spec=freq&amp;y_spec=Fnu_jy&amp;xr=-1&amp;of=table&amp;search_type=Photometry</t>
+  </si>
+  <si>
+    <t>SED (Jy)</t>
+  </si>
+  <si>
+    <t>Freq (Hz)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +274,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,23 +300,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="http://ned.ipac.caltech.edu/results/photo_21043.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5162549" y="190501"/>
+          <a:ext cx="3933825" cy="2434190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -599,883 +666,1026 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2">
+        <v>641000000000000</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.9699999999999996E-3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
+      <c r="N2"/>
+      <c r="U2" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2">
+        <v>240000000000000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="2">
+        <v>240000000000000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="2">
+        <v>240000000000000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.07E-2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:21">
+      <c r="A6" s="2">
+        <v>182000000000000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.123</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" s="2">
+        <v>182000000000000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
+    <row r="8" spans="1:21">
+      <c r="A8" s="2">
+        <v>182000000000000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="2">
+        <v>138000000000000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="2">
+        <v>138000000000000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
+    <row r="11" spans="1:21">
+      <c r="A11" s="2">
+        <v>138000000000000</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="2">
+        <v>5000000000000</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="2">
+        <v>3000000000000</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="2">
+        <v>1400000000</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.8E-3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:21">
+      <c r="E16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1">
+    <row r="17" spans="5:21">
+      <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1">
+      <c r="G17" s="1">
         <v>14.75</v>
       </c>
-      <c r="D17" s="1">
+      <c r="H17" s="1">
         <v>0.12</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="2">
+      <c r="J17" s="2">
         <v>641000000000000</v>
       </c>
-      <c r="G17" s="2">
+      <c r="K17" s="2">
         <v>4.9699999999999996E-3</v>
       </c>
-      <c r="H17" s="2">
+      <c r="L17" s="2">
         <v>5.8100000000000003E-4</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="M17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1">
+    <row r="18" spans="5:21">
+      <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1">
+      <c r="G18" s="1">
         <v>10.492000000000001</v>
       </c>
-      <c r="D18" s="1">
+      <c r="H18" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="2">
+      <c r="J18" s="2">
         <v>240000000000000</v>
       </c>
-      <c r="G18" s="2">
+      <c r="K18" s="2">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H18" s="2">
+      <c r="L18" s="2">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="M18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1">
+    <row r="19" spans="5:21">
+      <c r="E19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1">
+      <c r="G19" s="1">
         <v>10.353999999999999</v>
       </c>
-      <c r="D19" s="1">
+      <c r="H19" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="2">
+      <c r="J19" s="2">
         <v>240000000000000</v>
       </c>
-      <c r="G19" s="2">
+      <c r="K19" s="2">
         <v>0.115</v>
       </c>
-      <c r="H19" s="2">
+      <c r="L19" s="2">
         <v>1.49E-3</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="M19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1">
+    <row r="20" spans="5:21">
+      <c r="E20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1">
+      <c r="G20" s="1">
         <v>11.481</v>
       </c>
-      <c r="D20" s="1">
+      <c r="H20" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="2">
+      <c r="J20" s="2">
         <v>240000000000000</v>
       </c>
-      <c r="G20" s="2">
+      <c r="K20" s="2">
         <v>4.07E-2</v>
       </c>
-      <c r="H20" s="2">
+      <c r="L20" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="M20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1">
+    <row r="21" spans="5:21">
+      <c r="E21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1">
+      <c r="G21" s="1">
         <v>9.7970000000000006</v>
       </c>
-      <c r="D21" s="1">
+      <c r="H21" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="2">
+      <c r="J21" s="2">
         <v>182000000000000</v>
       </c>
-      <c r="G21" s="2">
+      <c r="K21" s="2">
         <v>0.123</v>
       </c>
-      <c r="H21" s="2">
+      <c r="L21" s="2">
         <v>2.0600000000000002E-3</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="M21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1">
+    <row r="22" spans="5:21">
+      <c r="E22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="G22" s="1">
         <v>9.6850000000000005</v>
       </c>
-      <c r="D22" s="1">
+      <c r="H22" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="2">
+      <c r="J22" s="2">
         <v>182000000000000</v>
       </c>
-      <c r="G22" s="2">
+      <c r="K22" s="2">
         <v>0.13700000000000001</v>
       </c>
-      <c r="H22" s="2">
+      <c r="L22" s="2">
         <v>2.16E-3</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="M22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1">
+    <row r="23" spans="5:21">
+      <c r="E23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="1">
+      <c r="G23" s="1">
         <v>10.763999999999999</v>
       </c>
-      <c r="D23" s="1">
+      <c r="H23" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="2">
+      <c r="J23" s="2">
         <v>182000000000000</v>
       </c>
-      <c r="G23" s="2">
+      <c r="K23" s="2">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="H23" s="2">
+      <c r="L23" s="2">
         <v>2.34E-4</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="M23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="5:21">
+      <c r="E24" s="1">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="1">
+      <c r="G24" s="1">
         <v>9.5589999999999993</v>
       </c>
-      <c r="D24" s="1">
+      <c r="H24" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="2">
+      <c r="J24" s="2">
         <v>138000000000000</v>
       </c>
-      <c r="G24" s="2">
+      <c r="K24" s="2">
         <v>0.1</v>
       </c>
-      <c r="H24" s="2">
+      <c r="L24" s="2">
         <v>2.5200000000000001E-3</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="M24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="U24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1">
+    <row r="25" spans="5:21">
+      <c r="E25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="1">
+      <c r="G25" s="1">
         <v>9.4499999999999993</v>
       </c>
-      <c r="D25" s="1">
+      <c r="H25" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="2">
+      <c r="J25" s="2">
         <v>138000000000000</v>
       </c>
-      <c r="G25" s="2">
+      <c r="K25" s="2">
         <v>0.111</v>
       </c>
-      <c r="H25" s="2">
+      <c r="L25" s="2">
         <v>2.5799999999999998E-3</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="M25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="U25" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1">
+    <row r="26" spans="5:21">
+      <c r="E26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="1">
+      <c r="G26" s="1">
         <v>10.481999999999999</v>
       </c>
-      <c r="D26" s="1">
+      <c r="H26" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="2">
+      <c r="J26" s="2">
         <v>138000000000000</v>
       </c>
-      <c r="G26" s="2">
+      <c r="K26" s="2">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="H26" s="2">
+      <c r="L26" s="2">
         <v>2.7700000000000001E-4</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="M26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="U26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1">
+    <row r="27" spans="5:21">
+      <c r="E27" s="1">
         <v>11</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="2">
+      <c r="J27" s="2">
         <v>2500</v>
       </c>
-      <c r="H27" s="2">
+      <c r="L27" s="2">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="M27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="U27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1">
+    <row r="28" spans="5:21">
+      <c r="E28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="2">
+      <c r="J28" s="2">
         <v>12000000000000</v>
       </c>
-      <c r="H28" s="2">
+      <c r="L28" s="2">
         <v>0.161</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="M28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1">
+    <row r="29" spans="5:21">
+      <c r="E29" s="1">
         <v>13</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="2">
+      <c r="G29" s="2">
         <v>0.33860000000000001</v>
       </c>
-      <c r="D29" s="3">
+      <c r="H29" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="2">
+      <c r="J29" s="2">
         <v>5000000000000</v>
       </c>
-      <c r="G29" s="2">
+      <c r="K29" s="2">
         <v>0.33900000000000002</v>
       </c>
-      <c r="H29" s="2">
+      <c r="L29" s="2">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="M29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="U29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1">
+    <row r="30" spans="5:21">
+      <c r="E30" s="1">
         <v>14</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="2">
+      <c r="G30" s="2">
         <v>0.93859999999999999</v>
       </c>
-      <c r="D30" s="3">
+      <c r="H30" s="3">
         <v>0.17</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="2">
+      <c r="J30" s="2">
         <v>3000000000000</v>
       </c>
-      <c r="G30" s="2">
+      <c r="K30" s="2">
         <v>0.93899999999999995</v>
       </c>
-      <c r="H30" s="2">
+      <c r="L30" s="2">
         <v>0.16</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="M30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="U30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1">
+    <row r="31" spans="5:21">
+      <c r="E31" s="1">
         <v>15</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="1">
+      <c r="G31" s="1">
         <v>2.8</v>
       </c>
-      <c r="D31" s="1">
+      <c r="H31" s="1">
         <v>0.6</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="2">
+      <c r="J31" s="2">
         <v>1400000000</v>
       </c>
-      <c r="G31" s="2">
+      <c r="K31" s="2">
         <v>2.8E-3</v>
       </c>
-      <c r="H31" s="2">
+      <c r="L31" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="M31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>